--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:050435</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,7 +495,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A process attribute of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -505,24 +505,20 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>behavioural form</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -533,28 +529,33 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -562,61 +563,60 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>transporting behaviour</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>locomotive behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -626,19 +626,24 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -646,7 +651,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>high emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -655,48 +660,58 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>moderate emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -704,7 +719,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>postural expressive behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -713,7 +728,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -721,45 +736,50 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -767,7 +787,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t>high cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -776,19 +796,24 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -796,7 +821,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -805,19 +830,24 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -825,7 +855,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -834,28 +864,33 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -863,26 +898,31 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -892,57 +932,67 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>physical impact behaviour</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>reflectively driven</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -950,7 +1000,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+          <t>A behavioural attribute in which the behaviour is caused by a reflective mental process.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -962,63 +1012,53 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>intentionality</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1026,275 +1066,310 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>response cost</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>reflectiveness</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>high physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1306,58 +1381,53 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Inhaling consumption that that involves using an e-cigarette.</t>
+          <t>An entity that is an outcome of behaviour.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>positive behavioural consequence</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1369,63 +1439,53 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>medication-taking</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1437,24 +1497,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>drinking</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1466,24 +1526,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1495,14 +1555,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:050899</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>family behavioural consequence</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1512,46 +1572,36 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>object management behaviour</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1559,25 +1609,29 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1585,41 +1639,36 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>An individual human behaviour that is reflectively driven.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050838</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>spontaneous recovery behaviour</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>An individual human behaviour that occurs after the behaviour has been subject to extinction in operant learning.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -1631,24 +1680,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>digital interaction behaviour</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -1660,36 +1709,46 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>audio presentation listening behaviour</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1697,7 +1756,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>watching behaviour</t>
+          <t>object management behaviour</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -1706,19 +1765,24 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1726,7 +1790,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>reading behaviour</t>
+          <t>environmental sustainability behaviour</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1735,7 +1799,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -1747,16 +1811,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1764,88 +1828,82 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>self-injury behaviour</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>manufacturing behaviour</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>harmful behaviour to others</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1853,7 +1911,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>harassment behaviour</t>
+          <t>digital interaction behaviour</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -1862,7 +1920,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -1874,58 +1932,53 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>bullying behaviour</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>reading behaviour</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -1937,14 +1990,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>self-monitoring an aspect of health</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1954,7 +2007,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -1966,53 +2019,63 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>alcohol consumption</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2024,24 +2087,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2049,62 +2112,67 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>providing healthcare advice</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>providing healthcare testing</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2116,24 +2184,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2145,7 +2213,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2153,7 +2221,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>making a referral to another health care service</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2162,36 +2230,41 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2203,53 +2276,63 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>medication-taking</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -2261,24 +2344,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2290,24 +2373,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>providing speech and language therapy</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2319,70 +2402,70 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>providing occupational therapy</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>administering vaccine</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sniffing consumption</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2390,7 +2473,7 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2399,7 +2482,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -2411,24 +2494,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>drinking</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -2440,7 +2523,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2449,7 +2532,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t>eating</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2457,42 +2540,36 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -2504,24 +2581,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>social prescribing</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>physical impact behaviour</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -2533,16 +2610,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -2550,41 +2627,36 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050827</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>past occurrence of a target behaviour</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>undergoing vaccination</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>An individual human behaviour that is the target of an intervention and has been previously enacted.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -2592,79 +2664,80 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>This is a relational class (relates one behaviour to another).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>participating in healthcare testing</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2672,7 +2745,7 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>association behaviour</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -2681,7 +2754,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -2693,7 +2766,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2702,7 +2775,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>association behaviour with a pro-social group</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2710,7 +2783,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -2722,24 +2795,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:036072</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>antisocial behaviour</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>participating in speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -2751,24 +2824,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050810</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -2780,53 +2853,59 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>participating in occupational therapy</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>parenting behaviour</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -2838,53 +2917,59 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>arranging a healthcare service appointment</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>economic behaviour</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>purchasing behaviour</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -2896,53 +2981,58 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>antisocial behaviour</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>selling behaviour</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -2954,14 +3044,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>economic behaviour</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -2971,25 +3061,19 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2997,7 +3081,7 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>employment behaviour</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3006,59 +3090,48 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3066,7 +3139,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>affiliation behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -3075,7 +3148,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -3087,122 +3160,116 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>physical combat behaviour</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>physical combat behaviour</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>pro-social behaviour</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -3214,24 +3281,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>care-giving behaviour</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -3243,14 +3310,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>political behaviour</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3260,28 +3327,33 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>harmful behaviour to others</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -3289,36 +3361,42 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>spiritual behaviour</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>harassment behaviour</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -3330,24 +3408,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>sexual behaviour</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -3355,25 +3433,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>enjoyment behaviour</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -3381,7 +3459,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+          <t>An individual human behaviour that relates to health.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -3393,14 +3471,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>avoidance behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3410,7 +3488,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid stimuli judged as aversive by the person.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -3422,53 +3500,58 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>administering vaccine</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>reviewing prescribed medication</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -3480,7 +3563,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3488,7 +3571,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>providing healthcare testing</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3497,41 +3580,36 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>skill development behaviour</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -3543,58 +3621,53 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>providing healthcare treatment</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -3606,131 +3679,111 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>facial expression behaviour</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>crying</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -3742,7 +3795,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3750,7 +3803,7 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -3759,41 +3812,36 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -3805,24 +3853,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>creative expressive behaviour</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -3830,33 +3878,34 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -3868,7 +3917,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -3876,7 +3925,7 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>diagnostic healthcare behaviour</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -3885,36 +3934,41 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>making a referral to another health care service</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -3926,24 +3980,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>providing healthcare advice</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -3955,116 +4009,121 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>participating in healthcare testing</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>participating in health screening</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -4076,24 +4135,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -4101,33 +4160,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>dressing behaviour</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>arranging a healthcare service appointment</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -4139,24 +4198,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>bodily hygiene behaviour</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -4168,24 +4227,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>handwashing</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>adherence to healthcare treatment</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -4197,24 +4256,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>participating in physical therapy</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -4226,24 +4285,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>participating in occupational therapy</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -4255,58 +4314,53 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>sun protective behaviour</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -4318,24 +4372,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>excretion behaviour</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -4347,14 +4401,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>breathing behaviour</t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -4364,7 +4418,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -4376,14 +4430,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>reproductive behaviour</t>
+          <t>health-promoting behaviour</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4393,7 +4447,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -4401,24 +4455,24 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>number of behavioural occurrences</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>BCIO:050438</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -4427,33 +4481,28 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>behavioural frequency</t>
-        </is>
-      </c>
+          <t>BCIO:036056</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>reproductive behaviour</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
@@ -4461,7 +4510,7 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -4471,23 +4520,23 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
+          <t>BCIO:036054</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>excretion behaviour</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
@@ -4495,33 +4544,28 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>abstinence from a behaviour</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>breathing behaviour</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -4529,32 +4573,27 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Not performing a behaviour for some period of time.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>BCIO:050443</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -4563,33 +4602,28 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
@@ -4597,7 +4631,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -4605,23 +4639,23 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -4631,52 +4665,36 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -4688,24 +4706,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>learning behaviour</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -4717,24 +4735,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -4744,43 +4762,48 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>tobacco use</t>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>monitoring behaviour</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:050807</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -4788,40 +4811,45 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>population behaviour pattern</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -4833,24 +4861,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>population behaviour</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>skill development behaviour</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -4862,16 +4890,16 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>abstinence start point</t>
-        </is>
-      </c>
+          <t>BCIO:036073</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
@@ -4879,38 +4907,28 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>abstinence end point</t>
-        </is>
-      </c>
+          <t>BCIO:036030</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -4918,7 +4936,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -4928,28 +4946,23 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>A time point that is the end of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>behaviour end point</t>
-        </is>
-      </c>
+          <t>BCIO:036047</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
@@ -4957,38 +4970,28 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>behaviour starting point</t>
-        </is>
-      </c>
+          <t>BCIO:036112</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -4996,37 +4999,27 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour starts.</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>BCIO:050818</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
@@ -5035,7 +5028,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+          <t>An individual human behaviour that has a behavioural goal.</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -5047,16 +5040,16 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
@@ -5064,7 +5057,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -5072,26 +5065,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:036092</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>animal function</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>approval seeking behaviour</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
@@ -5099,7 +5091,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A function that inheres in an animal and is realised in processes that enable the animal to survive and thrive.</t>
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -5111,15 +5103,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>BCIO:050440</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
@@ -5128,43 +5120,28 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5172,86 +5149,65 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>posture behaviour</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -5263,24 +5219,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -5292,152 +5248,137 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050460</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
+          <t>A posture behaviour that is expressive.</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>BCIO:036069</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>sitting</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>lying down</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
@@ -5445,7 +5386,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -5455,62 +5396,53 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
@@ -5518,7 +5450,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -5528,191 +5460,166 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>appearance-based bodily behaviour</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>dressing behaviour</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>bodily hygiene behaviour</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>moderate mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>dental hygiene behaviour</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -5722,7 +5629,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -5732,125 +5639,110 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:050812</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>An individual human behaviour within a residential facility.</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>coping behaviour</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050813</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>emotional behaviour</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>An individual human behaviour that is emotionally driven.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>low mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
@@ -5858,7 +5750,7 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>An individual human behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -5866,25 +5758,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050811</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>cue management behaviour</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
@@ -5892,35 +5784,25 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -5931,31 +5813,26 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>high physical exertion expended on behaviour</t>
+          <t>gesticulatory expressive behaviour</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -5965,7 +5842,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -5973,23 +5850,23 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>moderate physical exertion expended on behaviour</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -5999,31 +5876,26 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050458</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>facial expression behaviour</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -6033,7 +5905,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -6041,25 +5913,30 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
+          <t>BCIO:050456</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
@@ -6067,7 +5944,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -6075,25 +5952,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
+          <t>BCIO:050815</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>emotionally expressive behaviour</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
@@ -6101,33 +5978,28 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+          <t>An expressive behaviour that conveys some emotion.</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
@@ -6135,17 +6007,1524 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BCIO:050424</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using body language</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BCIO:036002</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BCIO:050375</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BCIO:050425</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BCIO:050373</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BCIO:036021</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>creative expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BCIO:050442</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BCIO:050461</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>A vocalisation behaviour that expresses something using words.</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BCIO:050451</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>BCIO:036107</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BCIO:034000</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BCIO:050808</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BCIO:050804</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>BCIO:050448</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>BCIO:036100</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BCIO:050210</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BCIO:050211</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BCIO:036102</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BCIO:036104</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BCIO:036106</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BCIO:050805</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>An individual human behaviour pattern that is continued.</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BCIO:050575</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>behaviour change through group norm</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BCIO:050207</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BCIO:050269</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BCIO:050311</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BCIO:050830</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>reducing discomfort</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>A process in which damage or injury is reduced.</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realised as some behaviour.</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BCIO:050449</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>The time a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BCIO:050455</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>behavioural duration</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
           <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
         <is>
           <t>The time between the start and end of a behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BCIO:050452</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>abstinence start point</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>A time point that is the start of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BCIO:050453</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>behaviour end point</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>A time point that is the start of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BCIO:050450</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>abstinence end point</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BCIO:036001</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BCIO:050817</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>frequency of past behaviour</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>A behavioural frequency about the number of times a person has enacted a behaviour per unit of time.</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:050452</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>abstinence start point</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,36 +495,37 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+          <t>A time point that is the start of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050450</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>abstinence end point</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -533,28 +534,38 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>BCIO:050453</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>behaviour end point</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -562,63 +573,77 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+          <t>A time point that is the end of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+          <t>A temporal region when a behaviour ends.</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>transporting behaviour</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A time point that is the start of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -626,57 +651,67 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050451</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -684,82 +719,113 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>postural expressive behaviour</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -767,7 +833,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -776,10 +842,10 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -788,27 +854,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -817,27 +883,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>behaviour change through group norm</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>sitting</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -846,15 +912,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050830</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>reducing discomfort</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -863,10 +929,15 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -875,16 +946,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -892,10 +963,10 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -904,27 +975,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>physical impact behaviour</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A process in which damage or injury is reduced.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -933,16 +1009,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -950,296 +1026,287 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050817</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>frequency of past behaviour</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural frequency about the number of times a person has enacted a behaviour per unit of time.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>substance use</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050918</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>low frequency of past behaviour</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
+          <t>A frequency of past behaviour that is below a threshold.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050917</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>high frequency of past behaviour</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>smoking</t>
+          <t>A frequency of past bhaviour that is above a threshold.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>BCIO:036107</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1248,27 +1315,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050808</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1277,99 +1344,115 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Inhaling consumption that that involves using an e-cigarette.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1377,7 +1460,7 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1386,49 +1469,39 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1437,56 +1510,61 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>drinking</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1495,46 +1573,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:036106</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:050805</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1542,7 +1605,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>object management behaviour</t>
+          <t>behaviour pattern maintenance</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1551,33 +1614,33 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>An individual human behaviour pattern that is continued.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050804</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1585,44 +1648,44 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
+          <t>An entity that is an outcome of behaviour.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1631,27 +1694,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>digital interaction behaviour</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1660,56 +1723,51 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>negative behavioural consequence</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>audio presentation listening behaviour</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1718,27 +1776,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>reading behaviour</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1747,16 +1805,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050899</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>family behavioural consequence</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1764,10 +1822,10 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
+          <t>A social behavioural consequence of some family member.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1776,16 +1834,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>self-injury behaviour</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>positive behavioural consequence</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1793,33 +1851,28 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>harmful behaviour to others</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1827,96 +1880,95 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>BCIO:050455</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>behavioural duration</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>harassment behaviour</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>BCIO:050449</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>bullying behaviour</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -1925,28 +1977,38 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -1954,10 +2016,10 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1966,16 +2028,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -1983,28 +2045,33 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process attribute of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>reflectiveness</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2012,189 +2079,219 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>behavioural form</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>providing healthcare advice</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>providing healthcare testing</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>high physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>making a referral to another health care service</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2203,27 +2300,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>response cost</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2232,27 +2329,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2261,56 +2358,66 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>intentionality</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>providing speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2319,99 +2426,109 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>providing occupational therapy</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>administering vaccine</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>moderate mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>reviewing prescribed medication</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2419,7 +2536,7 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2428,146 +2545,160 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>prescribing medication</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>high emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>low emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>social prescribing</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2575,7 +2706,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -2584,24 +2715,24 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2609,7 +2740,7 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>participating in healthcare testing</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -2618,102 +2749,112 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>participating in healthcare treatment</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>reflectively driven</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>participating in physical therapy</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
+          <t>A behavioural attribute in which the behaviour is caused by a reflective mental process.</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2722,85 +2863,104 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>participating in speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2809,27 +2969,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>participating in occupational therapy</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2838,7 +2998,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2846,7 +3006,7 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>arranging a healthcare service appointment</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -2855,10 +3015,10 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2867,16 +3027,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -2884,39 +3044,45 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2925,14 +3091,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>antisocial behaviour</t>
+          <t>posture behaviour</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2942,10 +3108,10 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2954,42 +3120,36 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2997,7 +3157,7 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>employment behaviour</t>
+          <t>postural expressive behaviour</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3006,59 +3166,53 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+          <t>A posture behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>sitting</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3066,7 +3220,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>affiliation behaviour</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -3075,10 +3229,10 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3087,51 +3241,45 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>lying down</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -3139,10 +3287,10 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
+          <t>An individual human behaviour that relates to a material entity.</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3151,41 +3299,36 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>physical combat behaviour</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3193,7 +3336,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3202,19 +3345,29 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3223,7 +3376,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>care-giving behaviour</t>
+          <t>tobacco use behaviour</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3231,68 +3384,78 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3301,27 +3464,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>spiritual behaviour</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>alcohol consumption</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3330,61 +3493,56 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>sexual behaviour</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>oral consumption</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>enjoyment behaviour</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3393,27 +3551,27 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>avoidance behaviour</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>drinking</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid stimuli judged as aversive by the person.</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3422,27 +3580,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3451,27 +3609,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>sniffing consumption</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3480,61 +3638,56 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>knowledge development behaviour</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>skill development behaviour</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3543,184 +3696,179 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>distress minimization behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>medication-taking</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>facial expression behaviour</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>crying</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>environmental system management behaviour</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -3730,19 +3878,29 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3750,7 +3908,7 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>object management behaviour</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -3759,44 +3917,44 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3805,14 +3963,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>creative expressive behaviour</t>
+          <t>object-using behaviour</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -3822,44 +3980,44 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>digital interaction behaviour</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3868,7 +4026,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -3876,7 +4034,7 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>reading behaviour</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -3885,10 +4043,10 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3897,27 +4055,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3926,27 +4084,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>manufacturing behaviour</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3955,61 +4113,56 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4018,27 +4171,27 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>physical impact behaviour</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
+          <t>A physical contact behaviour that is forceful.</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4047,27 +4200,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050838</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>spontaneous recovery behaviour</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
+          <t>An individual human behaviour that occurs after the behaviour has been subject to extinction in operant learning.</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4076,13 +4229,13 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050813</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>emotional behaviour</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -4093,33 +4246,28 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+          <t>An individual human behaviour that is emotionally driven.</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>dressing behaviour</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -4127,10 +4275,10 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
+          <t>An individual human behaviour that relates to the social environment.</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4139,14 +4287,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>bodily hygiene behaviour</t>
+          <t>nurture behaviour</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4156,19 +4304,25 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -4176,7 +4330,7 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>handwashing</t>
+          <t>parenting behaviour</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -4185,10 +4339,10 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4197,27 +4351,27 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4226,14 +4380,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:036072</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>appearance-based bodily behaviour</t>
+          <t>antisocial behaviour</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -4243,10 +4397,10 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4255,50 +4409,45 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050810</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>sun protective behaviour</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
@@ -4306,39 +4455,45 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>excretion behaviour</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>association behaviour</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4347,27 +4502,27 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>breathing behaviour</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>association behaviour with a pro-social group</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4376,14 +4531,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>reproductive behaviour</t>
+          <t>economic behaviour</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4393,135 +4548,126 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>number of behavioural occurrences</t>
-        </is>
-      </c>
+          <t>BCIO:036110</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>behavioural frequency</t>
-        </is>
-      </c>
+          <t>BCIO:050837</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>selling behaviour</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
+          <t>BCIO:050829</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>purchasing behaviour</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>abstinence from a behaviour</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -4529,137 +4675,101 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Not performing a behaviour for some period of time.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
+          <t>BCIO:006099</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>social influence behaviour</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050672</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>group facilitation behaviour</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4667,7 +4777,7 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -4676,10 +4786,10 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4688,7 +4798,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4697,7 +4807,7 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>care-giving behaviour</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4705,10 +4815,10 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4717,61 +4827,61 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>physical combat behaviour</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>tobacco use</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>pro-social behaviour</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4780,40 +4890,40 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>An &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:050812</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>population behaviour pattern</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
@@ -4821,10 +4931,10 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
+          <t>An individual human behaviour within a residential facility.</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4833,13 +4943,13 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050827</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>past occurrence of a target behaviour</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -4850,27 +4960,32 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An individual human behaviour that is the target of an intervention and has been previously enacted.</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>This is a relational class (relates one behaviour to another).</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>abstinence start point</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>BCIO:050443</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
@@ -4879,38 +4994,28 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>abstinence end point</t>
-        </is>
-      </c>
+          <t>BCIO:036041</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>mind-body behaviour</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -4918,38 +5023,28 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>A time point that is the end of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>behaviour end point</t>
-        </is>
-      </c>
+          <t>BCIO:036112</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
@@ -4957,38 +5052,28 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>behaviour starting point</t>
-        </is>
-      </c>
+          <t>BCIO:050421</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
@@ -4996,38 +5081,33 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour starts.</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>BCIO:036073</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
@@ -5035,10 +5115,10 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5047,16 +5127,16 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
@@ -5064,34 +5144,28 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:036092</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>animal function</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>learning behaviour</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
@@ -5099,10 +5173,10 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A function that inheres in an animal and is realised in processes that enable the animal to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5111,150 +5185,124 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
+          <t>BCIO:050291</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>monitoring behaviour</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050807</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5263,27 +5311,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>skill development behaviour</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5292,16 +5340,16 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:036030</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
@@ -5309,28 +5357,33 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>BCIO:036047</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
@@ -5338,33 +5391,28 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
@@ -5372,30 +5420,20 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+          <t>An &lt;experience-related behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -5406,38 +5444,33 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>bodily hygiene behaviour</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
@@ -5445,208 +5478,178 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>dental hygiene behaviour</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>dressing behaviour</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>appearance-based bodily behaviour</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
@@ -5654,33 +5657,28 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>moderate mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
@@ -5688,31 +5686,26 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>An individual human behaviour that relates to health.</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>health-promoting behaviour</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -5722,92 +5715,87 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>self-monitoring an aspect of health</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -5815,7 +5803,7 @@
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>participating in healthcare testing</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -5824,328 +5812,1926 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>low mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>participating in health screening</t>
+        </is>
+      </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>adherence to healthcare treatment</t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>participating in physical therapy</t>
+        </is>
+      </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>low physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
+          <t>BCIO:050407</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
+          <t>BCIO:050409</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>The time a person is abstinent from a behaviour.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
+          <t>BCIO:050408</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>participating in occupational therapy</t>
+        </is>
+      </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>The time between the start and end of a behaviour.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BCIO:050400</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>arranging a healthcare service appointment</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BCIO:036042</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BCIO:050413</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BCIO:050352</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>providing healthcare testing</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BCIO:050353</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BCIO:050358</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>reviewing prescribed medication</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BCIO:050354</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BCIO:050356</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BCIO:050357</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BCIO:050355</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BCIO:050359</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>administering vaccine</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BCIO:050362</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>providing healthcare treatment</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>BCIO:050367</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BCIO:050366</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BCIO:050363</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BCIO:050364</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BCIO:050365</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>BCIO:050360</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>providing healthcare advice</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>BCIO:050414</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>diagnostic healthcare behaviour</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BCIO:050361</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>making a referral to another health care service</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BCIO:050832</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that is reflectively driven.</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BCIO:050818</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that has a behavioural goal.</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BCIO:050840</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BCIO:050802</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>approval seeking behaviour</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BCIO:050920</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>opportunity-seeking behaviour</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BCIO:050438</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>An individual human behaviour related to vital bodily functions.</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BCIO:036054</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>excretion behaviour</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BCIO:036057</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>breathing behaviour</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BCIO:036056</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>reproductive behaviour</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BCIO:050809</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>coping behaviour</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BCIO:050834</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BCIO:050811</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>cue management behaviour</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BCIO:050456</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BCIO:050442</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BCIO:050461</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>A vocalisation behaviour that expresses something using words.</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BCIO:050459</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>gesticulatory expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BCIO:036021</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>creative expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BCIO:050373</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BCIO:050424</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using body language</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BCIO:036002</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BCIO:050425</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BCIO:050375</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BCIO:050374</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BCIO:050458</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>facial expression behaviour</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>BCIO:050815</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>emotionally expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that conveys some emotion.</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BCIO:036075</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that causes net harm.</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BCIO:036014</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>self-injury behaviour</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BCIO:050398</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>harmful behaviour to others</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BCIO:036037</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>harassment behaviour</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BCIO:036032</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
+          <t>BCIO:050455</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abstinence start point</t>
+          <t>behavioural duration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,34 +495,29 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
+          <t>BCIO:050449</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>abstinence end point</t>
+          <t>abstinence duration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -534,34 +529,29 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>A time point that is the end of an abstinence period.</t>
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>behaviour end point</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -573,34 +563,24 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
+          <t>BCIO:050830</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>behaviour starting point</t>
+          <t>reducing discomfort</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -612,34 +592,29 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour starts.</t>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
+          <t>BCIO:050209</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>individual human behaviour change</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -651,30 +626,40 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>individual human behaviour pattern cessation</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -685,33 +670,38 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Not performing a behaviour for some period of time.</t>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -719,133 +709,108 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>behaviour change through group norm</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -854,27 +819,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+          <t>A process in which damage or injury is reduced.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -883,15 +853,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050575</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>behaviour change through group norm</t>
-        </is>
-      </c>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -900,10 +870,10 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -912,15 +882,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>reducing discomfort</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>BCIO:036001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -929,15 +899,16 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -946,12 +917,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:050453</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>behaviour end point</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -963,10 +934,20 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
+          <t>A time point that is the end of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -975,12 +956,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
+          <t>BCIO:050452</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>reducing harm</t>
+          <t>abstinence start point</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -992,15 +973,20 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A process in which damage or injury is reduced.</t>
+          <t>A time point that is the start of an abstinence period.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1009,12 +995,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
+          <t>BCIO:050450</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>behavioural frequency</t>
+          <t>abstinence end point</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1026,32 +1012,37 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050817</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>frequency of past behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1060,10 +1051,20 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A behavioural frequency about the number of times a person has enacted a behaviour per unit of time.</t>
+          <t>A time point that is the start of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1072,16 +1073,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050918</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>low frequency of past behaviour</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1089,23 +1090,33 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A frequency of past behaviour that is below a threshold.</t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050917</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>high frequency of past behaviour</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1113,22 +1124,32 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A frequency of past bhaviour that is above a threshold.</t>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>number of behavioural occurrences</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>BCIO:050817</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>frequency of past behaviour</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1137,33 +1158,28 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+          <t>A behavioural frequency about the number of times a person has enacted a behaviour per unit of time.</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
+          <t>BCIO:050918</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>low frequency of past behaviour</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1171,33 +1187,23 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
+          <t>A frequency of past behaviour that is below a threshold.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>BCIO:050917</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>high frequency of past behaviour</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1205,27 +1211,22 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A frequency of past bhaviour that is above a threshold.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1234,30 +1235,29 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>process aggregate</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1269,30 +1269,34 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>regulatory behaviour</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1303,10 +1307,15 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>An individual human behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1315,14 +1324,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050808</t>
+          <t>BCIO:050811</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>collective behaviour</t>
+          <t>cue management behaviour</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1332,10 +1341,10 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1344,13 +1353,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>uniform process aggregate</t>
+          <t>life function-related behaviour</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1361,31 +1370,26 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>excretion behaviour</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1395,10 +1399,10 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1407,14 +1411,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>reproductive behaviour</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1424,55 +1428,44 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>breathing behaviour</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1481,27 +1474,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+          <t>An individual human behaviour that relates to the social environment.</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1510,61 +1503,56 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>social support behaviour</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1573,31 +1561,36 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050805</t>
+          <t>BCIO:050672</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1605,7 +1598,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>behaviour pattern maintenance</t>
+          <t>group facilitation behaviour</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1614,78 +1607,63 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that is continued.</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050804</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>behaviour chain</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>social influence behaviour</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050806</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>behavioural consequence</t>
-        </is>
-      </c>
+          <t>BCIO:050836</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>An entity that is an outcome of behaviour.</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1694,27 +1672,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>impact of behaviour on environment</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>physical combat behaviour</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1723,16 +1706,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050919</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>negative behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1740,23 +1723,23 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
+          <t>An &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050900</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>social behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>economic behaviour</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1764,10 +1747,16 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1776,27 +1765,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050901</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>wider community behavioural consequence</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A social behavioural consequence that is beyond the person’s family.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1805,27 +1799,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050899</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>family behavioural consequence</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>purchasing behaviour</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>A social behavioural consequence of some family member.</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1834,27 +1828,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>positive behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>selling behaviour</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1863,16 +1857,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>harm prevention</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1880,10 +1874,10 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A behavioural consequence in which harm is prevented.</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1892,16 +1886,16 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
+          <t>BCIO:036072</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>antisocial behaviour</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1909,67 +1903,57 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>The time between the start and end of a behaviour.</t>
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
+          <t>BCIO:050810</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>The time a person is abstinent from a behaviour.</t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
+          <t>BCIO:036086</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -1977,49 +1961,45 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Where a person, animal or object is.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>task complexity</t>
-        </is>
-      </c>
+          <t>BCIO:050826</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>parenting behaviour</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2028,16 +2008,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>BCIO:036066</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>pro-social behaviour</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2045,33 +2025,28 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2079,106 +2054,92 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>association behaviour</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>association behaviour with a pro-social group</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2186,31 +2147,31 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>bodily hygiene behaviour</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2220,78 +2181,68 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>dental hygiene behaviour</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>identity congruence</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2300,16 +2251,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>response cost</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2317,10 +2268,15 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2329,16 +2285,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050814</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>emotionally driven</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>appearance-based bodily behaviour</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -2346,10 +2302,10 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2358,16 +2314,16 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>dressing behaviour</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -2375,35 +2331,25 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050902</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>behavioural ease</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2414,10 +2360,10 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
+          <t>An individual human behaviour that relates to a material entity.</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2426,16 +2372,16 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -2443,126 +2389,121 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>moderate mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>object management behaviour</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2570,7 +2511,7 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>high emotional management exertion expended on a behaviour</t>
+          <t>physical impact behaviour</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -2579,282 +2520,262 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
+          <t>substance use</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>smoking</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>low mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>alcohol consumption</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>reflectively driven</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sniffing consumption</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by a reflective mental process.</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2863,104 +2784,90 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050378</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2969,27 +2876,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>oral consumption</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2998,27 +2905,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3027,42 +2934,36 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>drinking</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3070,7 +2971,7 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>transporting behaviour</t>
+          <t>medication-taking</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -3079,10 +2980,20 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3091,27 +3002,32 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3120,27 +3036,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>reclining</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3149,7 +3065,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3157,7 +3073,7 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>postural expressive behaviour</t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3166,44 +3082,44 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>sitting</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3212,7 +3128,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3220,7 +3136,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>watching behaviour</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -3229,10 +3145,10 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3241,7 +3157,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3249,7 +3165,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t>manufacturing behaviour</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -3258,10 +3174,10 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3270,27 +3186,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3299,27 +3215,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>reading behaviour</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3328,7 +3244,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3336,7 +3252,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>digital interaction behaviour</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3345,117 +3261,97 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>substance use</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
+          <t>An individual human behaviour that is reflectively driven.</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050812</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>smoking</t>
+          <t>An individual human behaviour within a residential facility.</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3464,27 +3360,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>posture behaviour</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3493,7 +3389,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3501,7 +3397,7 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>oral consumption</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -3510,10 +3406,10 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3522,27 +3418,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3551,27 +3447,27 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>drinking</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>sitting</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3580,7 +3476,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -3588,7 +3484,7 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -3597,10 +3493,10 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3609,27 +3505,32 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A posture behaviour that is expressive.</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3638,27 +3539,33 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3667,27 +3574,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3696,41 +3603,36 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using an e-cigarette.</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -3738,7 +3640,7 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -3747,49 +3649,39 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
+          <t>An individual human behaviour that relates to health.</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3798,61 +3690,61 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>health-promoting behaviour</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3861,46 +3753,36 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>providing healthcare advice</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3908,7 +3790,7 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>object management behaviour</t>
+          <t>making a referral to another health care service</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -3917,24 +3799,19 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:050816</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3942,7 +3819,7 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>environmental sustainability behaviour</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -3951,10 +3828,10 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3963,61 +3840,62 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>digital interaction behaviour</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4026,27 +3904,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>reading behaviour</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4055,7 +3933,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -4063,7 +3941,7 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>audio presentation listening behaviour</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -4072,10 +3950,10 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4084,27 +3962,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4113,27 +3991,27 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4142,27 +4020,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4171,27 +4049,27 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>physical impact behaviour</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4200,27 +4078,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:050838</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>spontaneous recovery behaviour</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>An individual human behaviour that occurs after the behaviour has been subject to extinction in operant learning.</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4229,27 +4107,32 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:050813</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>emotional behaviour</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>administering vaccine</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is emotionally driven.</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4258,27 +4141,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>reviewing prescribed medication</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4287,62 +4170,56 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>providing healthcare testing</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>parenting behaviour</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4351,27 +4228,32 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>diagnostic healthcare behaviour</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4380,14 +4262,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>antisocial behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -4397,10 +4279,10 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4409,27 +4291,32 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:050810</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>criminal behaviour</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4438,42 +4325,41 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -4481,7 +4367,7 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>association behaviour</t>
+          <t>arranging a healthcare service appointment</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -4490,10 +4376,10 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4502,27 +4388,32 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:050803</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>association behaviour with a pro-social group</t>
-        </is>
-      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>participating in healthcare testing</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4531,42 +4422,36 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>participating in health screening</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -4574,7 +4459,7 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>employment behaviour</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -4583,44 +4468,39 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>selling behaviour</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>participating in physical therapy</t>
+        </is>
+      </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4629,27 +4509,27 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>purchasing behaviour</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>adherence to healthcare treatment</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4658,27 +4538,27 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>participating in occupational therapy</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4687,27 +4567,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>social influence behaviour</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4716,27 +4596,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>rewarding behaviour</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4745,51 +4625,56 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>group facilitation behaviour</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>self-monitoring an aspect of health</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4798,27 +4683,32 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:050827</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>past occurrence of a target behaviour</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>care-giving behaviour</t>
-        </is>
-      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+          <t>An individual human behaviour that is the target of an intervention and has been previously enacted.</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
+        <is>
+          <t>This is a relational class (relates one behaviour to another).</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4827,48 +4717,43 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:050443</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>physical combat behaviour</t>
-        </is>
-      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>pro-social behaviour</t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -4878,10 +4763,15 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4890,14 +4780,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
@@ -4907,23 +4797,28 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:050812</t>
+          <t>BCIO:036073</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>domestic behaviour</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
@@ -4931,10 +4826,10 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>An individual human behaviour within a residential facility.</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4943,16 +4838,16 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:050827</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>past occurrence of a target behaviour</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
@@ -4960,33 +4855,28 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is the target of an intervention and has been previously enacted.</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>This is a relational class (relates one behaviour to another).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
@@ -4994,26 +4884,21 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;experience-related behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
+          <t>spiritual behaviour</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -5023,10 +4908,10 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5035,14 +4920,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -5052,10 +4937,10 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5064,61 +4949,66 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>avoidance behaviour</t>
-        </is>
-      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>monitoring behaviour</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5127,27 +5017,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:050841</t>
+          <t>BCIO:050807</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>approach behaviour</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5156,27 +5046,27 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5185,7 +5075,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -5193,7 +5083,7 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -5202,78 +5092,73 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>monitoring behaviour</t>
-        </is>
-      </c>
+      <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:050807</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>carer monitoring of child behaviour</t>
-        </is>
-      </c>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5282,27 +5167,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
+          <t>An individual human behaviour that has a behavioural goal.</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5311,27 +5196,32 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>skill development behaviour</t>
-        </is>
-      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5340,14 +5230,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>sexual behaviour</t>
+          <t>opportunity-seeking behaviour</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -5357,31 +5247,21 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>enjoyment behaviour</t>
+          <t>approval seeking behaviour</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -5391,10 +5271,10 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5403,16 +5283,16 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
@@ -5420,20 +5300,25 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>An &lt;experience-related behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>harmful behaviour</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -5444,31 +5329,26 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>bodily hygiene behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -5478,10 +5358,16 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5490,7 +5376,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -5498,7 +5384,7 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>handwashing</t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -5507,10 +5393,10 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5519,27 +5405,32 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5548,14 +5439,14 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -5565,33 +5456,33 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050813</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>dressing behaviour</t>
-        </is>
-      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>emotional behaviour</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
@@ -5599,10 +5490,10 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
+          <t>An individual human behaviour that is emotionally driven.</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5611,16 +5502,16 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
@@ -5628,10 +5519,10 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5640,16 +5531,16 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:050456</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>harm preventing behaviour</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
@@ -5657,10 +5548,15 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has an outcome to prevent harm.</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5669,16 +5565,16 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
@@ -5686,10 +5582,10 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5698,61 +5594,56 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>health-promoting behaviour</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>A health-related behaviour that improves the person’s health.</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using body language</t>
+        </is>
+      </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5761,95 +5652,90 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>participating in healthcare testing</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5858,41 +5744,36 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>undergoing vaccination</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -5900,7 +5781,7 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -5909,10 +5790,10 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5921,27 +5802,37 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050801</t>
+          <t>BCIO:050458</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>facial expression behaviour</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>adherence to healthcare treatment</t>
-        </is>
-      </c>
+      <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5950,27 +5841,32 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>gesticulatory expressive behaviour</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>participating in physical therapy</t>
-        </is>
-      </c>
+      <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5979,27 +5875,32 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>creative expressive behaviour</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6008,27 +5909,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050815</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>emotionally expressive behaviour</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
+          <t>An expressive behaviour that conveys some emotion.</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6037,27 +5938,27 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>participating in speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6066,27 +5967,32 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>participating in occupational therapy</t>
-        </is>
-      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6095,27 +6001,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>arranging a healthcare service appointment</t>
-        </is>
-      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6124,16 +6030,16 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>coping behaviour</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
@@ -6141,10 +6047,10 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6153,16 +6059,16 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050838</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>spontaneous recovery behaviour</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
@@ -6170,10 +6076,10 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
+          <t>An individual human behaviour that occurs after the behaviour has been subject to extinction in operant learning.</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6182,56 +6088,66 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr"/>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>providing healthcare testing</t>
-        </is>
-      </c>
+      <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>population</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050451</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr">
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6240,27 +6156,32 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
+          <t>BCIO:036107</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>reviewing prescribed medication</t>
-        </is>
-      </c>
+      <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
-        </is>
-      </c>
-      <c r="L186" t="inlineStr">
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6269,27 +6190,32 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050804</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6298,27 +6224,27 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
+      <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6327,27 +6253,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:050808</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>social prescribing</t>
-        </is>
-      </c>
+      <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6356,76 +6282,86 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>prescribing medication</t>
-        </is>
-      </c>
+      <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>administering vaccine</t>
-        </is>
-      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -6433,7 +6369,7 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -6442,10 +6378,10 @@
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6454,7 +6390,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -6463,7 +6399,7 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -6471,10 +6407,10 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6483,27 +6419,32 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>providing occupational therapy</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6512,27 +6453,27 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
+      <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6541,56 +6482,56 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:036106</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050805</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An individual human behaviour pattern that is continued.</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6599,27 +6540,27 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>providing healthcare advice</t>
-        </is>
-      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6628,61 +6569,61 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr"/>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
+      <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process attribute of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>response cost</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>making a referral to another health care service</t>
-        </is>
-      </c>
+      <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L200" t="inlineStr">
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6691,13 +6632,13 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>reflective behaviour</t>
+          <t>behavioural form</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -6708,10 +6649,15 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is reflectively driven.</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr">
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6720,13 +6666,13 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BCIO:050818</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
-          <t>goal-directed behaviour</t>
+          <t>reflectiveness</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -6737,10 +6683,20 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has a behavioural goal.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6749,16 +6705,16 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>threat-reducing behaviour</t>
-        </is>
-      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
@@ -6766,31 +6722,31 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:050802</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>approval seeking behaviour</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -6800,10 +6756,15 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6812,14 +6773,14 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BCIO:050920</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>opportunity-seeking behaviour</t>
+          <t>high physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -6829,23 +6790,33 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
@@ -6853,10 +6824,15 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6865,16 +6841,16 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>excretion behaviour</t>
-        </is>
-      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>reflectively driven</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
@@ -6882,10 +6858,10 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr">
+          <t>A behavioural attribute in which the behaviour is caused by a reflective mental process.</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6894,16 +6870,16 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>breathing behaviour</t>
-        </is>
-      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
@@ -6911,10 +6887,15 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6923,14 +6904,14 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>reproductive behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -6940,44 +6921,49 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BCIO:050809</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>coping behaviour</t>
-        </is>
-      </c>
+      <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6986,61 +6972,66 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>regulatory behaviour</t>
-        </is>
-      </c>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCIO:050811</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>cue management behaviour</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7049,16 +7040,16 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>moderate mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -7066,10 +7057,15 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7078,14 +7074,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>crying</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -7095,15 +7091,15 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7112,27 +7108,32 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>low emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7141,7 +7142,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -7149,7 +7150,7 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -7158,65 +7159,65 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>high emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>creative expressive behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -7226,31 +7227,31 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>high mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -7260,10 +7261,15 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7272,27 +7278,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
       <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr">
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7301,27 +7307,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr">
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7330,27 +7336,37 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7359,27 +7375,37 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>intentionality</t>
+        </is>
+      </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7388,61 +7414,56 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr"/>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr">
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7451,45 +7472,55 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr"/>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
@@ -7497,10 +7528,10 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
+          <t>An entity that is an outcome of behaviour.</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7509,16 +7540,16 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>facial expression behaviour</t>
-        </is>
-      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
@@ -7526,38 +7557,28 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:050815</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>emotionally expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
@@ -7565,10 +7586,10 @@
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>An expressive behaviour that conveys some emotion.</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7577,13 +7598,13 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>social behavioural consequence</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
@@ -7594,10 +7615,10 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7606,14 +7627,14 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>wider community behavioural consequence</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -7623,31 +7644,26 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050899</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t>family behavioural consequence</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -7657,81 +7673,65 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>negative behavioural consequence</t>
+        </is>
+      </c>
       <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>harassment behaviour</t>
-        </is>
-      </c>
+      <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
-        </is>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>positive behavioural consequence</t>
+        </is>
+      </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>bullying behaviour</t>
-        </is>
-      </c>
+      <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -451,39 +451,39 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
+          <t>BCIO:050435</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,30 +495,30 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>A process attribute of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -529,7 +529,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -537,25 +537,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Not performing a behaviour for some period of time.</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>BCIO:050433</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -563,36 +563,41 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -602,32 +607,31 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
+          <t>BCIO:050462</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -635,33 +639,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -669,23 +673,23 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -695,7 +699,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -703,102 +707,101 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -808,67 +811,82 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>tobacco use</t>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>low emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>high emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050805</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -876,7 +894,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>behaviour pattern maintenance</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -885,7 +903,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that is continued.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -895,23 +913,23 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>population behaviour pattern</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>behavioural reflectiveness</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -919,28 +937,38 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050804</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>behaviour chain</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>reflectively controlled</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -948,30 +976,25 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>behavioural form</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -982,28 +1005,33 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050808</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>collective behaviour</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1011,7 +1039,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1023,15 +1051,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>task complexity</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>BCIO:050432</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1040,28 +1068,33 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>BCIO:050469</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1069,7 +1102,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1077,25 +1110,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour.</t>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1103,7 +1136,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1111,23 +1144,23 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>high physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1137,7 +1170,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1145,101 +1178,91 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>response cost</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1247,25 +1270,30 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1273,41 +1301,36 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>intentionality</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1315,67 +1338,67 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1385,23 +1408,27 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1409,31 +1436,26 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>posture behaviour</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1443,41 +1465,36 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>low mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>A posture behaviour that is expressive.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1487,159 +1504,139 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>sitting</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>low physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>lying down</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1647,75 +1644,55 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>behavioural reflectiveness</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>reflectively controlled</t>
+          <t>travel behaviour</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1725,64 +1702,60 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050814</t>
+          <t>BCIO:050443</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>emotionally driven</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1793,7 +1766,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -1805,16 +1778,16 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>identity congruence</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1822,28 +1795,33 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050902</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>behavioural ease</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1851,36 +1829,41 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
+          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
+          <t>BCIO:050811</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>response cost</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>cue management behaviour</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -1892,16 +1875,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1909,33 +1892,28 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
+          <t>BCIO:036112</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1943,33 +1921,28 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>behavioural frequency</t>
-        </is>
-      </c>
+          <t>BCIO:036008</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>learning behaviour</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -1977,41 +1950,36 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>number of behavioural occurrences</t>
-        </is>
-      </c>
+          <t>BCIO:050291</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2021,60 +1989,65 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050806</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>behavioural consequence</t>
-        </is>
-      </c>
+          <t>BCIO:050825</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>monitoring behaviour</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>An entity that is an outcome of behaviour.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
+          <t>BCIO:050807</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>harm prevention</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A behavioural consequence in which harm is prevented.</t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2086,24 +2059,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>positive behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2115,40 +2088,45 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050919</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>negative behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>skill development behaviour</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050900</t>
+          <t>BCIO:036073</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>social behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2156,7 +2134,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2168,14 +2146,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050899</t>
+          <t>BCIO:050813</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>family behavioural consequence</t>
+          <t>emotional behaviour</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2185,7 +2163,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>A social behavioural consequence of some family member.</t>
+          <t>An experience-related behaviour that is caused by an emotion process.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2197,14 +2175,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050901</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>wider community behavioural consequence</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2214,7 +2192,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>A social behavioural consequence that is beyond the person’s family.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2226,16 +2204,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>impact of behaviour on environment</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2243,28 +2221,33 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
+          <t>BCIO:036047</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2272,37 +2255,27 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Where a person, animal or object is.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>BCIO:050812</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
@@ -2311,32 +2284,27 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
+          <t>An individual human behaviour within a residential facility.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>BCIO:050846</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>behavioural substitution</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
@@ -2345,32 +2313,27 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>BCIO:050441</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -2379,43 +2342,28 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050575</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>behaviour change through group norm</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -2423,65 +2371,61 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>parenting behaviour</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>pro-social behaviour</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2491,47 +2435,36 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036072</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>antisocial behaviour</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -2543,24 +2476,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:050810</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -2572,16 +2505,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>reducing harm</t>
-        </is>
-      </c>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2589,41 +2522,36 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A process in which damage or injury is reduced.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>reducing discomfort</t>
-        </is>
-      </c>
+          <t>BCIO:036036</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>physical combat behaviour</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -2631,195 +2559,165 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050672</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>group facilitation behaviour</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>behaviour change intervention outcome behaviour</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>social support behaviour</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>behaviour end point</t>
-        </is>
-      </c>
+          <t>BCIO:036033</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>abstinence end point</t>
-        </is>
-      </c>
+          <t>BCIO:006099</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>social influence behaviour</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>A time point that is the end of an abstinence period.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>abstinence start point</t>
-        </is>
-      </c>
+          <t>BCIO:050836</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>behaviour starting point</t>
-        </is>
-      </c>
+          <t>BCIO:036089</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -2827,38 +2725,28 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour starts.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:006095</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2866,37 +2754,23 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -2904,36 +2778,42 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health of oneself or others.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>association behaviour</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -2945,24 +2825,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>association behaviour with a pro-social group</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -2974,14 +2854,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>health-promoting behaviour</t>
+          <t>economic behaviour</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2991,7 +2871,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A health-related behaviour that improves the person’s health.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -3001,48 +2881,44 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>purchasing behaviour</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -3050,7 +2926,7 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t>selling behaviour</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3059,24 +2935,19 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3084,7 +2955,7 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>participating in healthcare testing</t>
+          <t>employment behaviour</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -3093,7 +2964,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -3103,31 +2974,31 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>coping behaviour</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3139,24 +3010,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>participating in healthcare treatment</t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -3168,24 +3039,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -3197,24 +3068,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>physical impact behaviour</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -3226,53 +3097,58 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>participating in speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>participating in physical therapy</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -3284,24 +3160,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>participating in occupational therapy</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>reading behaviour</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -3313,24 +3189,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:050801</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>adherence to healthcare treatment</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>digital interaction behaviour</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -3342,7 +3218,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3350,7 +3226,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>arranging a healthcare service appointment</t>
+          <t>watching behaviour</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3359,7 +3235,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -3371,24 +3247,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>manufacturing behaviour</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -3400,24 +3276,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>providing healthcare testing</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -3429,53 +3305,63 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>substance use</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>providing healthcare advice</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>alcohol consumption</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -3487,146 +3373,155 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>social prescribing</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>prescribing medication</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>reviewing prescribed medication</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -3638,7 +3533,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3646,7 +3541,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>making a referral to another health care service</t>
+          <t>medication-taking</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3655,19 +3550,29 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3675,7 +3580,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>administering vaccine</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3684,75 +3589,65 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -3764,36 +3659,41 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -3802,7 +3702,7 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3810,7 +3710,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -3822,24 +3722,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -3851,24 +3751,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>oral consumption</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -3880,7 +3780,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3889,7 +3789,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>drinking</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3897,7 +3797,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -3909,48 +3809,43 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>dressing behaviour</t>
+          <t>environmental system management behaviour</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -3960,65 +3855,80 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>object management behaviour</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>bodily hygiene behaviour</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -4030,24 +3940,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+          <t>An individual human behaviour that has a behavioural goal.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -4059,43 +3969,38 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>handwashing</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>opportunity-seeking behaviour</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>approval seeking behaviour</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -4105,33 +4010,28 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>harm preventing behaviour</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4139,25 +4039,30 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>life function-related behaviour</t>
+          <t>habitual behaviour</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -4168,28 +4073,23 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>reproductive behaviour</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -4197,31 +4097,26 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>excretion behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -4231,7 +4126,7 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -4243,24 +4138,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>breathing behaviour</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -4272,77 +4167,87 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using body language</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>behavioural substitution</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -4354,24 +4259,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -4383,24 +4288,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>antisocial behaviour</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -4412,7 +4317,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050810</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -4420,7 +4325,7 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>criminal behaviour</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -4429,7 +4334,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -4441,14 +4346,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050458</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>facial expression behaviour</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -4458,7 +4363,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -4466,63 +4371,72 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>association behaviour</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>gesticulatory expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:050803</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>association behaviour with a pro-social group</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -4534,14 +4448,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4551,89 +4465,104 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050456</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:050815</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>emotionally expressive behaviour</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>care-giving behaviour</t>
-        </is>
-      </c>
+      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+          <t>An expressive behaviour that conveys some emotion.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -4645,48 +4574,58 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>group facilitation behaviour</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>creative expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>social influence behaviour</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+          <t>An individual human behaviour that relates to health of oneself or others.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -4698,151 +4637,150 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>health-promoting behaviour</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>rewarding behaviour</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>physical combat behaviour</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>administering vaccine</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>providing healthcare treatment</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>selling behaviour</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -4854,24 +4792,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>purchasing behaviour</t>
-        </is>
-      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -4883,93 +4821,82 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>employment behaviour</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>parenting behaviour</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -4981,53 +4908,58 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>reflective behaviour</t>
-        </is>
-      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>diagnostic healthcare behaviour</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is caused by a reflective mental process.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>making a referral to another health care service</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -5039,63 +4971,53 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>object management behaviour</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -5105,31 +5027,32 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:050816</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>environmental sustainability behaviour</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -5141,41 +5064,36 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -5183,7 +5101,7 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>audio presentation listening behaviour</t>
+          <t>providing healthcare advice</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -5192,7 +5110,7 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -5204,7 +5122,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -5212,7 +5130,7 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>digital interaction behaviour</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -5221,7 +5139,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -5233,7 +5151,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -5241,7 +5159,7 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>reading behaviour</t>
+          <t>providing healthcare testing</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -5250,7 +5168,7 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -5262,24 +5180,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -5291,53 +5209,58 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -5349,24 +5272,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>physical impact behaviour</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -5378,24 +5301,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>participating in physical therapy</t>
+        </is>
+      </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -5407,24 +5330,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -5436,24 +5359,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -5465,7 +5388,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -5474,7 +5397,7 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>drinking</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -5482,7 +5405,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -5494,75 +5417,70 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>adherence to healthcare treatment</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>participating in healthcare testing</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -5571,7 +5489,7 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>participating in health screening</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -5579,41 +5497,36 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -5621,33 +5534,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>smoking</t>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>arranging a healthcare service appointment</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -5659,58 +5572,53 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>self-monitoring an aspect of health</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -5722,24 +5630,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -5751,53 +5659,58 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
+      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>dressing behaviour</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -5809,58 +5722,53 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>bodily hygiene behaviour</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using an e-cigarette.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -5872,7 +5780,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -5880,7 +5788,7 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>dental hygiene behaviour</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -5889,7 +5797,7 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -5901,24 +5809,24 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>medication-taking</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -5926,30 +5834,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>appearance-based bodily behaviour</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
@@ -5957,7 +5860,7 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -5969,16 +5872,16 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>sexual behaviour</t>
-        </is>
-      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -5986,31 +5889,26 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>reproductive behaviour</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -6020,26 +5918,31 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>enjoyment behaviour</t>
+          <t>breathing behaviour</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -6049,7 +5952,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -6061,14 +5964,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>avoidance behaviour</t>
+          <t>excretion behaviour</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -6078,7 +5981,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -6090,16 +5993,16 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
@@ -6107,7 +6010,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>An individual human behaviour that is caused by a reflective mental process.</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -6119,16 +6022,16 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
@@ -6136,31 +6039,26 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BCIO:050841</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>approach behaviour</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -6170,26 +6068,31 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>regulatory behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -6199,7 +6102,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -6209,14 +6112,15 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCIO:050811</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -6224,7 +6128,7 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>cue management behaviour</t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -6233,7 +6137,7 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -6245,82 +6149,92 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
+          <t>BCIO:050455</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>behavioural duration</t>
+        </is>
+      </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>skill development behaviour</t>
-        </is>
-      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr"/>
+          <t>BCIO:050449</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>knowledge development behaviour</t>
-        </is>
-      </c>
+      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -6330,31 +6244,31 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>monitoring behaviour</t>
-        </is>
-      </c>
+      <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -6362,33 +6276,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BCIO:050807</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>carer monitoring of child behaviour</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -6400,45 +6314,51 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
-        </is>
-      </c>
+      <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BCIO:050813</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
+          <t>BCIO:036107</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>emotional behaviour</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
@@ -6446,25 +6366,30 @@
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is caused by an emotion process.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BCIO:050809</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>coping behaviour</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -6475,7 +6400,7 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -6487,16 +6412,16 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050808</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
@@ -6504,7 +6429,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -6516,16 +6441,16 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCIO:050815</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>emotionally expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
@@ -6533,26 +6458,31 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>An expressive behaviour that conveys some emotion.</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>gesticulatory expressive behaviour</t>
+          <t>individual human behaviour pattern</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -6562,7 +6492,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -6570,33 +6500,44 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -6608,87 +6549,87 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>crying</t>
-        </is>
-      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -6700,195 +6641,210 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:036106</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050805</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>An individual human behaviour pattern that is continued.</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050804</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr"/>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>creative expressive behaviour</t>
-        </is>
-      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
@@ -6896,7 +6852,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -6904,25 +6860,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr"/>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
       <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
@@ -6930,36 +6886,41 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050451</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
       <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>talking</t>
-        </is>
-      </c>
+      <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -6967,25 +6928,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr"/>
+          <t>BCIO:050453</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>behaviour end point</t>
+        </is>
+      </c>
       <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>facial expression behaviour</t>
-        </is>
-      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
@@ -6993,7 +6954,7 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
+          <t>A time point that is the end of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -7001,29 +6962,29 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BCIO:050812</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>domestic behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
@@ -7032,27 +6993,37 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>An individual human behaviour within a residential facility.</t>
+          <t>A time point that is the start of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050450</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>abstinence end point</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
@@ -7061,28 +7032,38 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
+          <t>BCIO:050452</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>abstinence start point</t>
+        </is>
+      </c>
       <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -7090,7 +7071,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A time point that is the start of an abstinence period.</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -7098,34 +7079,38 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+        </is>
+      </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr"/>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>transporting behaviour</t>
-        </is>
-      </c>
+      <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>An entity that is an outcome of behaviour.</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -7137,16 +7122,16 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>negative behavioural consequence</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
@@ -7154,36 +7139,31 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
       <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
+      <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -7195,24 +7175,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:050899</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>family behavioural consequence</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -7224,58 +7204,53 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>postural expressive behaviour</t>
-        </is>
-      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>positive behavioural consequence</t>
+        </is>
+      </c>
       <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>sitting</t>
-        </is>
-      </c>
+      <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -7287,24 +7262,24 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
       <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>reclining</t>
-        </is>
-      </c>
+      <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -7316,16 +7291,16 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
@@ -7333,7 +7308,7 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -7345,44 +7320,49 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
+          <t>BCIO:050830</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>reducing discomfort</t>
+        </is>
+      </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
@@ -7391,28 +7371,33 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t>A process in which damage or injury is reduced.</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>harmful behaviour to others</t>
-        </is>
-      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
@@ -7420,7 +7405,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -7428,34 +7413,43 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>behaviour change through group norm</t>
+        </is>
+      </c>
       <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>harassment behaviour</t>
-        </is>
-      </c>
+      <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -7467,24 +7461,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>bullying behaviour</t>
-        </is>
-      </c>
+      <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -7492,23 +7486,28 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>self-injury behaviour</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -7518,7 +7517,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -7526,33 +7525,39 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:050818</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>goal-directed behaviour</t>
-        </is>
-      </c>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has a behavioural goal.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -7564,40 +7569,45 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:050920</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>opportunity-seeking behaviour</t>
-        </is>
-      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>threat-reducing behaviour</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
@@ -7605,33 +7615,28 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:050802</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>approval seeking behaviour</t>
-        </is>
-      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
@@ -7639,12 +7644,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -451,14 +451,14 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
         <is>
           <t>Examples</t>
@@ -466,24 +466,24 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,7 +495,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -503,22 +503,22 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour.</t>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -529,7 +529,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -537,23 +537,23 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>population behaviour pattern</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -563,41 +563,36 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -605,16 +600,27 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -622,7 +628,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>high cognitive exertion expended on a behaviour</t>
+          <t>consumption behaviour pattern</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -631,75 +637,65 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moderate mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -709,99 +705,84 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>low mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:036106</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050805</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+          <t>An individual human behaviour pattern that is continued.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -809,33 +790,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050804</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -843,92 +824,82 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050808</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>behavioural reflectiveness</t>
-        </is>
-      </c>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -937,38 +908,28 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>reflectively controlled</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -976,27 +937,33 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1005,7 +972,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1013,24 +980,24 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>identity congruence</t>
-        </is>
-      </c>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1039,27 +1006,32 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1068,33 +1040,33 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050451</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>low physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1102,7 +1074,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1110,25 +1082,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1136,7 +1108,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>A process attribute of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1144,25 +1116,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>response cost</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1170,30 +1142,25 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>response cost</t>
+          <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1204,28 +1171,33 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050814</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>emotionally driven</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1233,28 +1205,33 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1262,7 +1239,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1270,30 +1247,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050902</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>behavioural ease</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1301,36 +1273,41 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1338,67 +1315,67 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>task complexity</t>
-        </is>
-      </c>
+          <t>BCIO:050470</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050466</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1406,29 +1383,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>moderate mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1436,26 +1409,31 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>posture behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1465,19 +1443,24 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1485,7 +1468,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>postural expressive behaviour</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1494,7 +1477,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1502,16 +1485,16 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1519,7 +1502,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t>high emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1528,19 +1511,24 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1548,7 +1536,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1557,65 +1545,80 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>intentionality</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1627,16 +1630,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1644,7 +1647,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1656,43 +1659,53 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>behavioural reflectiveness</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>reflectively controlled</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1702,60 +1715,64 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>transporting behaviour</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>experience-related behaviour</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1766,26 +1783,31 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>distress minimisation behaviour</t>
+          <t>moderate physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1795,7 +1817,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -1805,21 +1827,21 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>distress minimization behaviour</t>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>regulatory behaviour</t>
+          <t>high physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1829,7 +1851,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -1837,54 +1859,59 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050811</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>cue management behaviour</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050841</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>approach behaviour</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>behavioural form</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1892,28 +1919,33 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>spiritual behaviour</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1921,7 +1953,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -1933,16 +1965,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -1950,7 +1982,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -1962,24 +1994,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>knowledge development behaviour</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -1989,65 +2021,64 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
+          <t>BCIO:050812</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>monitoring behaviour</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+          <t>An individual human behaviour within a residential facility.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050807</t>
+          <t>BCIO:050846</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>behavioural substitution</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>carer monitoring of child behaviour</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2059,24 +2090,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2088,24 +2119,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>skill development behaviour</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>An individual human behaviour that has a behavioural goal.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2117,14 +2148,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>avoidance behaviour</t>
+          <t>opportunity-seeking behaviour</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2134,26 +2165,21 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050813</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>emotional behaviour</t>
+          <t>threat-reducing behaviour</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2163,26 +2189,31 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is caused by an emotion process.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
+          <t>approval seeking behaviour</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2192,7 +2223,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2204,16 +2235,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>sexual behaviour</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2221,31 +2252,26 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>enjoyment behaviour</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2255,7 +2281,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2267,24 +2293,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050812</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>domestic behaviour</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>physical impact behaviour</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>An individual human behaviour within a residential facility.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2296,16 +2322,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>behavioural substitution</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -2313,36 +2339,41 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>manufacturing behaviour</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2354,42 +2385,36 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2397,7 +2422,7 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>parenting behaviour</t>
+          <t>digital interaction behaviour</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2406,7 +2431,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -2418,24 +2443,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>reading behaviour</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -2447,24 +2472,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>antisocial behaviour</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -2476,53 +2501,63 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050810</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>criminal behaviour</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -2534,7 +2569,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2542,7 +2577,7 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>object management behaviour</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -2551,7 +2586,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -2559,40 +2594,45 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>group facilitation behaviour</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2600,7 +2640,7 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -2609,7 +2649,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -2621,7 +2661,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2630,7 +2670,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>care-giving behaviour</t>
+          <t>drinking</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2638,7 +2678,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -2650,24 +2690,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>social influence behaviour</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -2679,24 +2719,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>rewarding behaviour</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -2708,24 +2748,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -2737,95 +2777,99 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>normative behaviour</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>association behaviour</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050803</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2834,7 +2878,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>association behaviour with a pro-social group</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2842,7 +2886,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -2854,24 +2898,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -2881,32 +2925,36 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+          <t>substance use</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>purchasing behaviour</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>alcohol consumption</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -2918,53 +2966,58 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>selling behaviour</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>employment behaviour</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -2974,31 +3027,31 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050809</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>coping behaviour</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3010,82 +3063,97 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>medication-taking</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>physical impact behaviour</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -3097,16 +3165,16 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -3114,7 +3182,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -3122,33 +3190,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>audio presentation listening behaviour</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>bodily hygiene behaviour</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -3160,7 +3228,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3168,7 +3236,7 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>reading behaviour</t>
+          <t>handwashing</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -3177,7 +3245,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -3189,7 +3257,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -3197,7 +3265,7 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>digital interaction behaviour</t>
+          <t>dental hygiene behaviour</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3206,7 +3274,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -3218,53 +3286,58 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>appearance-based bodily behaviour</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -3276,14 +3349,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>dressing behaviour</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3293,7 +3366,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -3305,92 +3378,87 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>substance use</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>self-injury behaviour</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>harmful behaviour to others</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -3400,140 +3468,142 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>tobacco use</t>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>harassment behaviour</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>economic behaviour</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3541,7 +3611,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>purchasing behaviour</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3550,29 +3620,19 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3580,7 +3640,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>selling behaviour</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3589,7 +3649,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -3601,128 +3661,140 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>parenting behaviour</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using an e-cigarette.</t>
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -3730,7 +3802,7 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>association behaviour</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -3739,7 +3811,7 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -3751,24 +3823,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>association behaviour with a pro-social group</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -3780,53 +3852,48 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>drinking</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -3838,14 +3905,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -3855,29 +3922,19 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -3885,7 +3942,7 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>object management behaviour</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -3894,41 +3951,36 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050816</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>environmental sustainability behaviour</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -3940,24 +3992,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050818</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>goal-directed behaviour</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>social support behaviour</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has a behavioural goal.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -3969,103 +4021,103 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:050920</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>opportunity-seeking behaviour</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:050802</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>approval seeking behaviour</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>physical combat behaviour</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:050672</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>threat-reducing behaviour</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>group facilitation behaviour</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:036072</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>antisocial behaviour</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -4073,31 +4125,36 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050810</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -4109,14 +4166,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>pro-social behaviour</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -4126,7 +4183,7 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -4138,24 +4195,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -4167,87 +4224,88 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -4259,24 +4317,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -4288,24 +4346,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>posture behaviour</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -4317,7 +4375,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -4325,7 +4383,7 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -4334,7 +4392,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -4346,24 +4404,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>facial expression behaviour</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
+          <t>A posture behaviour that is expressive.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -4371,72 +4429,62 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>lying down</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -4448,24 +4496,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -4477,50 +4525,45 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>talking</t>
-        </is>
-      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>An individual human behaviour that is caused by a reflective mental process.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>crying</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
@@ -4528,31 +4571,26 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:050815</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>emotionally expressive behaviour</t>
+          <t>creative expressive behaviour</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4562,26 +4600,31 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>An expressive behaviour that conveys some emotion.</t>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>creative expressive behaviour</t>
+          <t>vocalisation behaviour</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -4591,60 +4634,60 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health of oneself or others.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
+          <t>BCIO:050815</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>health-promoting behaviour</t>
+          <t>emotionally expressive behaviour</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -4654,31 +4697,26 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A health-related behaviour that improves the person’s health.</t>
+          <t>An expressive behaviour that conveys some emotion.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050458</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>providing healthcare</t>
+          <t>facial expression behaviour</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
@@ -4688,36 +4726,46 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>administering vaccine</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>gesticulatory expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -4725,33 +4773,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -4763,24 +4811,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -4792,24 +4840,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -4821,7 +4869,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -4830,7 +4878,7 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>providing occupational therapy</t>
+          <t>non-linguistic communication behaviour using vocalisations</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4838,7 +4886,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -4850,7 +4898,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -4859,7 +4907,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>providing speech and language therapy</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4867,7 +4915,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -4879,24 +4927,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -4908,151 +4956,150 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>making a referral to another health care service</t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050456</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>prescribing medication</t>
-        </is>
-      </c>
+      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>An individual human behaviour that relates to health of oneself or others.</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -5064,65 +5111,75 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>health-promoting behaviour</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>social prescribing</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>providing healthcare advice</t>
-        </is>
-      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -5130,7 +5187,7 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -5139,7 +5196,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -5151,24 +5208,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>providing healthcare testing</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>participating in occupational therapy</t>
+        </is>
+      </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -5180,7 +5237,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -5189,7 +5246,7 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>providing health screening</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5197,7 +5254,7 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -5209,58 +5266,53 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>participating in healthcare treatment</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>adherence to healthcare treatment</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -5272,7 +5324,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -5281,7 +5333,7 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -5289,7 +5341,7 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -5301,24 +5353,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>participating in physical therapy</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -5330,24 +5382,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>arranging a healthcare service appointment</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -5359,36 +5411,41 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>participating in healthcare testing</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -5397,7 +5454,7 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>participating in health screening</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -5405,7 +5462,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -5417,99 +5474,104 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050801</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>adherence to healthcare treatment</t>
-        </is>
-      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>participating in healthcare testing</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>administering vaccine</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -5517,7 +5579,7 @@
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -5526,70 +5588,71 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>arranging a healthcare service appointment</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -5601,24 +5664,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -5630,24 +5693,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>harm preventing behaviour</t>
-        </is>
-      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>making a referral to another health care service</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -5659,58 +5722,53 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>providing healthcare testing</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>dressing behaviour</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -5722,24 +5780,24 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>bodily hygiene behaviour</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>providing healthcare advice</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -5751,7 +5809,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -5759,7 +5817,7 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>handwashing</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -5768,7 +5826,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -5780,24 +5838,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -5809,58 +5867,53 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>sun protective behaviour</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -5872,24 +5925,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
+      <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -5901,87 +5954,87 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>reproductive behaviour</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>breathing behaviour</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>diagnostic healthcare behaviour</t>
+        </is>
+      </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>excretion behaviour</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>reviewing prescribed medication</t>
+        </is>
+      </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -5993,16 +6046,16 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>reflective behaviour</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>self-monitoring an aspect of health</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
@@ -6010,7 +6063,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is caused by a reflective mental process.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -6022,16 +6075,16 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
@@ -6039,7 +6092,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -6051,16 +6104,16 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050443</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>self-injury behaviour</t>
-        </is>
-      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
@@ -6068,31 +6121,26 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -6102,25 +6150,19 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -6128,7 +6170,7 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>harassment behaviour</t>
+          <t>knowledge development behaviour</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -6137,19 +6179,24 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -6158,7 +6205,7 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>bullying behaviour</t>
+          <t>monitoring behaviour</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
@@ -6166,7 +6213,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -6174,127 +6221,112 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
+          <t>BCIO:050807</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
+          <t>BCIO:050824</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
+          <t>BCIO:036039</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>skill development behaviour</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>BCIO:050813</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>emotional behaviour</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
@@ -6302,7 +6334,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+          <t>An experience-related behaviour that is caused by an emotion process.</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -6314,16 +6346,16 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
@@ -6331,7 +6363,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -6341,24 +6373,23 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
+          <t>BCIO:050834</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
@@ -6366,7 +6397,7 @@
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -6374,33 +6405,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050811</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>population behaviour</t>
-        </is>
-      </c>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>cue management behaviour</t>
+        </is>
+      </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -6412,14 +6443,14 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BCIO:050808</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>collective behaviour</t>
+          <t>approach behaviour</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -6429,7 +6460,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -6441,16 +6472,16 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
@@ -6458,7 +6489,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -6466,23 +6497,23 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:036073</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>avoidance behaviour</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -6492,52 +6523,36 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
-        </is>
-      </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -6549,24 +6564,24 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>mind-body behaviour</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -6578,135 +6593,125 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>coping behaviour</t>
+        </is>
+      </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BCIO:050805</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>behaviour pattern maintenance</t>
-        </is>
-      </c>
+      <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that is continued.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>population behaviour pattern</t>
+          <t>breathing behaviour</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -6716,7 +6721,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -6728,16 +6733,16 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:050804</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>behaviour chain</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>excretion behaviour</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
@@ -6745,33 +6750,28 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
+          <t>BCIO:036056</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>reproductive behaviour</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
@@ -6779,34 +6779,29 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Where a person, animal or object is.</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050416</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>number of behavioural occurrences</t>
+          <t>behavioural disposition</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -6818,7 +6813,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -6826,21 +6821,21 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
+          <t>BCIO:050450</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>behavioural frequency</t>
+          <t>abstinence end point</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -6852,7 +6847,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -6860,21 +6855,26 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
+          <t>BCIO:050453</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>behaviour end point</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -6886,32 +6886,37 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>A time point that is the end of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>abstinence from a behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
@@ -6920,7 +6925,7 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+          <t>A time point that is the start of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -6928,21 +6933,26 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Not performing a behaviour for some period of time.</t>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
+          <t>BCIO:050452</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>behaviour end point</t>
+          <t>abstinence start point</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -6954,7 +6964,7 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
+          <t>A time point that is the start of an abstinence period.</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -6962,12 +6972,12 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
         <is>
           <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
@@ -6976,12 +6986,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
+          <t>BCIO:050830</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>behaviour starting point</t>
+          <t>reducing discomfort</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -6993,7 +7003,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -7003,24 +7013,19 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>A temporal region when a behaviour starts.</t>
-        </is>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
+          <t>BCIO:050831</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>abstinence end point</t>
+          <t>reducing harm</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -7032,7 +7037,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+          <t>A process in which damage or injury is reduced.</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -7042,24 +7047,19 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>A time point that is the end of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>harmful behaviour</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>abstinence start point</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -7071,37 +7071,27 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BCIO:050806</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>behavioural consequence</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr"/>
+          <t>BCIO:002000</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
@@ -7110,27 +7100,22 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>An entity that is an outcome of behaviour.</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BCIO:050919</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>negative behavioural consequence</t>
-        </is>
-      </c>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
@@ -7139,20 +7124,40 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BCIO:050900</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>social behavioural consequence</t>
+          <t>behaviour change through group norm</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
@@ -7163,7 +7168,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -7175,16 +7180,16 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BCIO:050899</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>family behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
@@ -7192,26 +7197,36 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>A social behavioural consequence of some family member.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BCIO:050901</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>wider community behavioural consequence</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
@@ -7221,36 +7236,47 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>A social behavioural consequence that is beyond the person’s family.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>positive behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -7262,24 +7288,24 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>harm prevention</t>
-        </is>
-      </c>
+      <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>A behavioural consequence in which harm is prevented.</t>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -7291,15 +7317,15 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>impact of behaviour on environment</t>
-        </is>
-      </c>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
@@ -7308,7 +7334,7 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+          <t>An entity that is an outcome of behaviour.</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -7320,15 +7346,15 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>reducing discomfort</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr"/>
+          <t>BCIO:050900</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
@@ -7337,33 +7363,28 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>reducing harm</t>
-        </is>
-      </c>
+          <t>BCIO:050901</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
@@ -7371,33 +7392,28 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>A process in which damage or injury is reduced.</t>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
+          <t>BCIO:050899</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>family behavioural consequence</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
@@ -7405,40 +7421,25 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="P224" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:050575</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>behaviour change through group norm</t>
+          <t>negative behavioural consequence</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
@@ -7449,25 +7450,20 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>harm prevention</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
@@ -7478,38 +7474,28 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>positive behavioural consequence</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
@@ -7517,47 +7503,36 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
       <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
+      <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -7569,41 +7544,51 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:050455</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>behavioural duration</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -7615,27 +7600,32 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>behaviour change intervention outcome behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050449</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
@@ -7644,7 +7634,17 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -592,7 +592,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>spécification d’intervalle de dose</t>
+          <t>dose range specification</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -603,7 +603,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>An information content entity that specifies the minimum and maximum quantities of drug product or active ingredient in a dose administration.</t>
+          <t>Une entité de contenu informationnel qui spécifie les quantités minimum et maximum de médicament ou d’ingrédient actif dans une administration de dose.</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15996,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>BCIO:015392</t>
+          <t>BCIO:015317</t>
         </is>
       </c>
       <c r="B598" t="inlineStr"/>
@@ -16006,7 +16006,7 @@
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr">
         <is>
-          <t>history of exposure to an occupational hazard population statistic</t>
+          <t>expertise discipline population statistic</t>
         </is>
       </c>
       <c r="H598" t="inlineStr"/>
@@ -16015,14 +16015,14 @@
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
-          <t>A population statistic about history of exposure to an occupational hazard.</t>
+          <t>A population statistic about expertise discipline.</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>BCIO:015393</t>
+          <t>BCIO:015287</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -16033,7 +16033,7 @@
       <c r="G599" t="inlineStr"/>
       <c r="H599" t="inlineStr">
         <is>
-          <t>percentage history of exposure to an occupational hazard population statistic</t>
+          <t>discipline of current programme of study or training population statistic</t>
         </is>
       </c>
       <c r="I599" t="inlineStr"/>
@@ -16041,14 +16041,14 @@
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
-          <t>A(n) history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
+          <t>A population statistic about discipline of current programme of study or training.</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>BCIO:015394</t>
+          <t>BCIO:015288</t>
         </is>
       </c>
       <c r="B600" t="inlineStr"/>
@@ -16057,24 +16057,24 @@
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>proportion history of exposure to an occupational hazard population statistic</t>
-        </is>
-      </c>
-      <c r="I600" t="inlineStr"/>
+      <c r="H600" t="inlineStr"/>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>percentage discipline of current programme of study or training population statistic</t>
+        </is>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
-          <t>A(n) history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
+          <t>A(n) discipline of current programme of study or training population statistic that is the percentage of people that have a discipline of current programme of study or training in the population.</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>BCIO:015317</t>
+          <t>BCIO:015289</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -16082,25 +16082,25 @@
       <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>expertise discipline population statistic</t>
-        </is>
-      </c>
+      <c r="G601" t="inlineStr"/>
       <c r="H601" t="inlineStr"/>
-      <c r="I601" t="inlineStr"/>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>proportion discipline of current programme of study or training population statistic</t>
+        </is>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
-          <t>A population statistic about expertise discipline.</t>
+          <t>A(n) discipline of current programme of study or training population statistic that is the proportion of people that have a discipline of current programme of study or training in the population.</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>BCIO:015287</t>
+          <t>BCIO:015319</t>
         </is>
       </c>
       <c r="B602" t="inlineStr"/>
@@ -16111,7 +16111,7 @@
       <c r="G602" t="inlineStr"/>
       <c r="H602" t="inlineStr">
         <is>
-          <t>discipline of current programme of study or training population statistic</t>
+          <t>proportion expertise discipline population statistic</t>
         </is>
       </c>
       <c r="I602" t="inlineStr"/>
@@ -16119,14 +16119,14 @@
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
-          <t>A population statistic about discipline of current programme of study or training.</t>
+          <t>A(n) expertise discipline population statistic that is the proportion of people that have a expertise discipline in the population.</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>BCIO:015288</t>
+          <t>BCIO:015318</t>
         </is>
       </c>
       <c r="B603" t="inlineStr"/>
@@ -16135,24 +16135,24 @@
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr"/>
-      <c r="I603" t="inlineStr">
-        <is>
-          <t>percentage discipline of current programme of study or training population statistic</t>
-        </is>
-      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>percentage expertise discipline population statistic</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
-          <t>A(n) discipline of current programme of study or training population statistic that is the percentage of people that have a discipline of current programme of study or training in the population.</t>
+          <t>A(n) expertise discipline population statistic that is the percentage of people that have a expertise discipline in the population.</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>BCIO:015289</t>
+          <t>BCIO:015290</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -16161,24 +16161,24 @@
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr"/>
-      <c r="I604" t="inlineStr">
-        <is>
-          <t>proportion discipline of current programme of study or training population statistic</t>
-        </is>
-      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>discipline of highest level of formal educational qualification achieved population statistic</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
-          <t>A(n) discipline of current programme of study or training population statistic that is the proportion of people that have a discipline of current programme of study or training in the population.</t>
+          <t>A population statistic about discipline of highest level of formal educational qualification achieved.</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>BCIO:015319</t>
+          <t>BCIO:015292</t>
         </is>
       </c>
       <c r="B605" t="inlineStr"/>
@@ -16187,24 +16187,24 @@
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr"/>
       <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>proportion expertise discipline population statistic</t>
-        </is>
-      </c>
-      <c r="I605" t="inlineStr"/>
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>proportion discipline of highest level of formal educational qualification achieved population statistic</t>
+        </is>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
-          <t>A(n) expertise discipline population statistic that is the proportion of people that have a expertise discipline in the population.</t>
+          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the proportion of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>BCIO:015318</t>
+          <t>BCIO:015291</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -16213,24 +16213,24 @@
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr"/>
       <c r="G606" t="inlineStr"/>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>percentage expertise discipline population statistic</t>
-        </is>
-      </c>
-      <c r="I606" t="inlineStr"/>
+      <c r="H606" t="inlineStr"/>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>percentage discipline of highest level of formal educational qualification achieved population statistic</t>
+        </is>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
-          <t>A(n) expertise discipline population statistic that is the percentage of people that have a expertise discipline in the population.</t>
+          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the percentage of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>BCIO:015290</t>
+          <t>BCIO:015392</t>
         </is>
       </c>
       <c r="B607" t="inlineStr"/>
@@ -16238,25 +16238,25 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr"/>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>discipline of highest level of formal educational qualification achieved population statistic</t>
-        </is>
-      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>history of exposure to an occupational hazard population statistic</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
-          <t>A population statistic about discipline of highest level of formal educational qualification achieved.</t>
+          <t>A population statistic about history of exposure to an occupational hazard.</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>BCIO:015292</t>
+          <t>BCIO:015393</t>
         </is>
       </c>
       <c r="B608" t="inlineStr"/>
@@ -16265,24 +16265,24 @@
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
-      <c r="H608" t="inlineStr"/>
-      <c r="I608" t="inlineStr">
-        <is>
-          <t>proportion discipline of highest level of formal educational qualification achieved population statistic</t>
-        </is>
-      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>percentage history of exposure to an occupational hazard population statistic</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
-          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the proportion of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
+          <t>A(n) history of exposure to an occupational hazard population statistic that is the percentage of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>BCIO:015291</t>
+          <t>BCIO:015394</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -16291,17 +16291,17 @@
       <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr"/>
-      <c r="H609" t="inlineStr"/>
-      <c r="I609" t="inlineStr">
-        <is>
-          <t>percentage discipline of highest level of formal educational qualification achieved population statistic</t>
-        </is>
-      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>proportion history of exposure to an occupational hazard population statistic</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
-          <t>A(n) discipline of highest level of formal educational qualification achieved population statistic that is the percentage of people that have a discipline of highest level of formal educational qualification achieved in the population.</t>
+          <t>A(n) history of exposure to an occupational hazard population statistic that is the proportion of people that have a history of exposure to an occupational hazard in the population.</t>
         </is>
       </c>
     </row>
@@ -18392,7 +18392,7 @@
       <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
-          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -20654,7 +20654,7 @@
       <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr">
         <is>
-          <t>A person between 13 and 19 years of age.</t>
+          <t>A person who is between the ages of  13 and 19.</t>
         </is>
       </c>
     </row>
@@ -20903,7 +20903,7 @@
       <c r="D787" t="inlineStr"/>
       <c r="E787" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="F787" t="inlineStr"/>
@@ -21954,7 +21954,7 @@
       <c r="D828" t="inlineStr"/>
       <c r="E828" t="inlineStr">
         <is>
-          <t>fiat object</t>
+          <t>fiat object part</t>
         </is>
       </c>
       <c r="F828" t="inlineStr"/>
@@ -22220,7 +22220,7 @@
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="inlineStr">
         <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant &amp; there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
     </row>
@@ -22260,7 +22260,7 @@
       <c r="C840" t="inlineStr"/>
       <c r="D840" t="inlineStr">
         <is>
-          <t>realizable</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -22491,7 +22491,7 @@
       <c r="K848" t="inlineStr"/>
       <c r="L848" t="inlineStr">
         <is>
-          <t>A bodily disposition is a disposition that inheres in some extended organism. Examples are: my disposition to catch a cold when exposed to a virus, my ability to speak the English language.</t>
+          <t>A disposition that inheres in some extended organism.</t>
         </is>
       </c>
     </row>
@@ -22891,7 +22891,7 @@
       <c r="K863" t="inlineStr"/>
       <c r="L863" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
         </is>
       </c>
     </row>
@@ -39449,7 +39449,7 @@
       <c r="K1409" t="inlineStr"/>
       <c r="L1409" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
+          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -45937,7 +45937,7 @@
       <c r="K1616" t="inlineStr"/>
       <c r="L1616" t="inlineStr">
         <is>
-          <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
+          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
         </is>
       </c>
     </row>
